--- a/Brasil/BRW/COPOMdate.xlsx
+++ b/Brasil/BRW/COPOMdate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alysson\Documents\GitHub\Monetary-Shocks\Brasil\BRW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16CF85ED-B313-4CC6-829A-79A9B3B1ED25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F896A961-B962-4803-BF69-24F6B3209F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-3030" windowWidth="19440" windowHeight="14880" xr2:uid="{591A3324-7CEF-42B8-916E-ED59E41D8AAD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{591A3324-7CEF-42B8-916E-ED59E41D8AAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -395,11 +395,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29FD287-2A57-476F-B211-6D0BFA3BE758}">
-  <dimension ref="A1:B509"/>
+  <dimension ref="A1:B255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2446,2038 +2444,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="1">
-        <v>35251</v>
-      </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="1">
-        <v>35285</v>
-      </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="1">
-        <v>35307</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="1">
-        <v>35340</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="1">
-        <v>35370</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="1">
-        <v>35405</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="1">
-        <v>35429</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="1">
-        <v>35461</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="1">
-        <v>35489</v>
-      </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="1">
-        <v>35521</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="1">
-        <v>35548</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="1">
-        <v>35583</v>
-      </c>
-      <c r="B267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="1">
-        <v>35608</v>
-      </c>
-      <c r="B268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="1">
-        <v>35643</v>
-      </c>
-      <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="1">
-        <v>35671</v>
-      </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="1">
-        <v>35699</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="1">
-        <v>35734</v>
-      </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="1">
-        <v>35744</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="1">
-        <v>35762</v>
-      </c>
-      <c r="B274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="1">
-        <v>35793</v>
-      </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="1">
-        <v>35832</v>
-      </c>
-      <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="1">
-        <v>35867</v>
-      </c>
-      <c r="B277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="1">
-        <v>35912</v>
-      </c>
-      <c r="B278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="1">
-        <v>35944</v>
-      </c>
-      <c r="B279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="1">
-        <v>35979</v>
-      </c>
-      <c r="B280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="1">
-        <v>36014</v>
-      </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="1">
-        <v>36052</v>
-      </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="1">
-        <v>36059</v>
-      </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="1">
-        <v>36087</v>
-      </c>
-      <c r="B284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="1">
-        <v>36119</v>
-      </c>
-      <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="1">
-        <v>36157</v>
-      </c>
-      <c r="B286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="1">
-        <v>36187</v>
-      </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="1">
-        <v>36234</v>
-      </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="1">
-        <v>36276</v>
-      </c>
-      <c r="B289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="1">
-        <v>36308</v>
-      </c>
-      <c r="B290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="1">
-        <v>36343</v>
-      </c>
-      <c r="B291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="1">
-        <v>36378</v>
-      </c>
-      <c r="B292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="1">
-        <v>36416</v>
-      </c>
-      <c r="B293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="1">
-        <v>36434</v>
-      </c>
-      <c r="B294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="1">
-        <v>36451</v>
-      </c>
-      <c r="B295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="1">
-        <v>36486</v>
-      </c>
-      <c r="B296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="1">
-        <v>36518</v>
-      </c>
-      <c r="B297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="1">
-        <v>36553</v>
-      </c>
-      <c r="B298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="1">
-        <v>36581</v>
-      </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="1">
-        <v>36616</v>
-      </c>
-      <c r="B300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="1">
-        <v>36648</v>
-      </c>
-      <c r="B301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="1">
-        <v>36679</v>
-      </c>
-      <c r="B302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="1">
-        <v>36707</v>
-      </c>
-      <c r="B303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="1">
-        <v>36735</v>
-      </c>
-      <c r="B304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="1">
-        <v>36770</v>
-      </c>
-      <c r="B305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="1">
-        <v>36798</v>
-      </c>
-      <c r="B306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="1">
-        <v>36826</v>
-      </c>
-      <c r="B307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="1">
-        <v>36861</v>
-      </c>
-      <c r="B308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="1">
-        <v>36893</v>
-      </c>
-      <c r="B309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="1">
-        <v>36917</v>
-      </c>
-      <c r="B310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="1">
-        <v>36945</v>
-      </c>
-      <c r="B311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="1">
-        <v>36980</v>
-      </c>
-      <c r="B312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="1">
-        <v>37008</v>
-      </c>
-      <c r="B313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="1">
-        <v>37043</v>
-      </c>
-      <c r="B314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="1">
-        <v>37071</v>
-      </c>
-      <c r="B315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="1">
-        <v>37099</v>
-      </c>
-      <c r="B316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="1">
-        <v>37134</v>
-      </c>
-      <c r="B317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="1">
-        <v>37162</v>
-      </c>
-      <c r="B318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="1">
-        <v>37190</v>
-      </c>
-      <c r="B319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="1">
-        <v>37225</v>
-      </c>
-      <c r="B320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="1">
-        <v>37256</v>
-      </c>
-      <c r="B321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="1">
-        <v>37288</v>
-      </c>
-      <c r="B322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="1">
-        <v>37316</v>
-      </c>
-      <c r="B323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="1">
-        <v>37347</v>
-      </c>
-      <c r="B324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="1">
-        <v>37372</v>
-      </c>
-      <c r="B325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="1">
-        <v>37410</v>
-      </c>
-      <c r="B326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="1">
-        <v>37435</v>
-      </c>
-      <c r="B327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="1">
-        <v>37463</v>
-      </c>
-      <c r="B328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="1">
-        <v>37498</v>
-      </c>
-      <c r="B329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="1">
-        <v>37526</v>
-      </c>
-      <c r="B330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="1">
-        <v>37552</v>
-      </c>
-      <c r="B331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="1">
-        <v>37560</v>
-      </c>
-      <c r="B332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="1">
-        <v>37589</v>
-      </c>
-      <c r="B333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="1">
-        <v>37620</v>
-      </c>
-      <c r="B334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="1">
-        <v>37652</v>
-      </c>
-      <c r="B335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="1">
-        <v>37680</v>
-      </c>
-      <c r="B336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="1">
-        <v>37708</v>
-      </c>
-      <c r="B337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="1">
-        <v>37746</v>
-      </c>
-      <c r="B338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="1">
-        <v>37771</v>
-      </c>
-      <c r="B339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="1">
-        <v>37802</v>
-      </c>
-      <c r="B340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="1">
-        <v>37834</v>
-      </c>
-      <c r="B341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="1">
-        <v>37862</v>
-      </c>
-      <c r="B342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="1">
-        <v>37890</v>
-      </c>
-      <c r="B343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="1">
-        <v>37925</v>
-      </c>
-      <c r="B344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="1">
-        <v>37953</v>
-      </c>
-      <c r="B345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="1">
-        <v>37984</v>
-      </c>
-      <c r="B346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="1">
-        <v>38016</v>
-      </c>
-      <c r="B347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="1">
-        <v>38048</v>
-      </c>
-      <c r="B348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="1">
-        <v>38072</v>
-      </c>
-      <c r="B349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="1">
-        <v>38103</v>
-      </c>
-      <c r="B350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="1">
-        <v>38135</v>
-      </c>
-      <c r="B351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="1">
-        <v>38163</v>
-      </c>
-      <c r="B352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="1">
-        <v>38198</v>
-      </c>
-      <c r="B353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="1">
-        <v>38226</v>
-      </c>
-      <c r="B354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="1">
-        <v>38254</v>
-      </c>
-      <c r="B355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="1">
-        <v>38288</v>
-      </c>
-      <c r="B356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="1">
-        <v>38317</v>
-      </c>
-      <c r="B357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="1">
-        <v>38345</v>
-      </c>
-      <c r="B358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="1">
-        <v>38380</v>
-      </c>
-      <c r="B359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="1">
-        <v>38408</v>
-      </c>
-      <c r="B360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="1">
-        <v>38439</v>
-      </c>
-      <c r="B361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="1">
-        <v>38474</v>
-      </c>
-      <c r="B362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="1">
-        <v>38502</v>
-      </c>
-      <c r="B363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="1">
-        <v>38527</v>
-      </c>
-      <c r="B364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="1">
-        <v>38562</v>
-      </c>
-      <c r="B365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="1">
-        <v>38590</v>
-      </c>
-      <c r="B366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="1">
-        <v>38618</v>
-      </c>
-      <c r="B367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="1">
-        <v>38653</v>
-      </c>
-      <c r="B368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="1">
-        <v>38688</v>
-      </c>
-      <c r="B369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="1">
-        <v>38709</v>
-      </c>
-      <c r="B370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="1">
-        <v>38744</v>
-      </c>
-      <c r="B371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="1">
-        <v>38793</v>
-      </c>
-      <c r="B372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="1">
-        <v>38839</v>
-      </c>
-      <c r="B373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="1">
-        <v>38877</v>
-      </c>
-      <c r="B374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="1">
-        <v>38926</v>
-      </c>
-      <c r="B375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="1">
-        <v>38971</v>
-      </c>
-      <c r="B376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="1">
-        <v>39016</v>
-      </c>
-      <c r="B377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="1">
-        <v>39059</v>
-      </c>
-      <c r="B378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="1">
-        <v>39115</v>
-      </c>
-      <c r="B379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="1">
-        <v>39157</v>
-      </c>
-      <c r="B380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="1">
-        <v>39199</v>
-      </c>
-      <c r="B381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="1">
-        <v>39251</v>
-      </c>
-      <c r="B382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="1">
-        <v>39290</v>
-      </c>
-      <c r="B383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="1">
-        <v>39342</v>
-      </c>
-      <c r="B384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="1">
-        <v>39381</v>
-      </c>
-      <c r="B385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="1">
-        <v>39430</v>
-      </c>
-      <c r="B386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="1">
-        <v>39479</v>
-      </c>
-      <c r="B387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="1">
-        <v>39521</v>
-      </c>
-      <c r="B388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="1">
-        <v>39566</v>
-      </c>
-      <c r="B389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" s="1">
-        <v>39612</v>
-      </c>
-      <c r="B390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="1">
-        <v>39661</v>
-      </c>
-      <c r="B391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="1">
-        <v>39710</v>
-      </c>
-      <c r="B392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="1">
-        <v>39759</v>
-      </c>
-      <c r="B393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="1">
-        <v>39801</v>
-      </c>
-      <c r="B394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="1">
-        <v>39843</v>
-      </c>
-      <c r="B395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="1">
-        <v>39892</v>
-      </c>
-      <c r="B396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="1">
-        <v>39944</v>
-      </c>
-      <c r="B397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="1">
-        <v>39986</v>
-      </c>
-      <c r="B398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="1">
-        <v>40025</v>
-      </c>
-      <c r="B399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="1">
-        <v>40070</v>
-      </c>
-      <c r="B400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" s="1">
-        <v>40116</v>
-      </c>
-      <c r="B401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="1">
-        <v>40165</v>
-      </c>
-      <c r="B402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" s="1">
-        <v>40214</v>
-      </c>
-      <c r="B403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" s="1">
-        <v>40263</v>
-      </c>
-      <c r="B404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" s="1">
-        <v>40305</v>
-      </c>
-      <c r="B405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="1">
-        <v>40347</v>
-      </c>
-      <c r="B406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="1">
-        <v>40389</v>
-      </c>
-      <c r="B407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="1">
-        <v>40434</v>
-      </c>
-      <c r="B408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="1">
-        <v>40480</v>
-      </c>
-      <c r="B409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="1">
-        <v>40529</v>
-      </c>
-      <c r="B410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="1">
-        <v>40571</v>
-      </c>
-      <c r="B411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="1">
-        <v>40617</v>
-      </c>
-      <c r="B412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="1">
-        <v>40666</v>
-      </c>
-      <c r="B413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="1">
-        <v>40711</v>
-      </c>
-      <c r="B414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="1">
-        <v>40753</v>
-      </c>
-      <c r="B415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="1">
-        <v>40798</v>
-      </c>
-      <c r="B416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="1">
-        <v>40844</v>
-      </c>
-      <c r="B417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" s="1">
-        <v>40886</v>
-      </c>
-      <c r="B418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" s="1">
-        <v>40935</v>
-      </c>
-      <c r="B419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" s="1">
-        <v>40984</v>
-      </c>
-      <c r="B420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" s="1">
-        <v>41026</v>
-      </c>
-      <c r="B421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="1">
-        <v>41071</v>
-      </c>
-      <c r="B422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" s="1">
-        <v>41110</v>
-      </c>
-      <c r="B423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" s="1">
-        <v>41162</v>
-      </c>
-      <c r="B424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" s="1">
-        <v>41204</v>
-      </c>
-      <c r="B425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" s="1">
-        <v>41250</v>
-      </c>
-      <c r="B426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="1">
-        <v>41299</v>
-      </c>
-      <c r="B427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" s="1">
-        <v>41348</v>
-      </c>
-      <c r="B428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" s="1">
-        <v>41390</v>
-      </c>
-      <c r="B429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" s="1">
-        <v>41435</v>
-      </c>
-      <c r="B430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" s="1">
-        <v>41474</v>
-      </c>
-      <c r="B431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="1">
-        <v>41523</v>
-      </c>
-      <c r="B432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" s="1">
-        <v>41565</v>
-      </c>
-      <c r="B433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" s="1">
-        <v>41614</v>
-      </c>
-      <c r="B434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" s="1">
-        <v>41663</v>
-      </c>
-      <c r="B435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" s="1">
-        <v>41709</v>
-      </c>
-      <c r="B436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="1">
-        <v>41740</v>
-      </c>
-      <c r="B437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" s="1">
-        <v>41796</v>
-      </c>
-      <c r="B438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" s="1">
-        <v>41845</v>
-      </c>
-      <c r="B439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" s="1">
-        <v>41894</v>
-      </c>
-      <c r="B440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" s="1">
-        <v>41950</v>
-      </c>
-      <c r="B441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" s="1">
-        <v>41985</v>
-      </c>
-      <c r="B442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" s="1">
-        <v>42034</v>
-      </c>
-      <c r="B443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" s="1">
-        <v>42076</v>
-      </c>
-      <c r="B444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" s="1">
-        <v>42135</v>
-      </c>
-      <c r="B445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" s="1">
-        <v>42170</v>
-      </c>
-      <c r="B446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" s="1">
-        <v>42223</v>
-      </c>
-      <c r="B447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" s="1">
-        <v>42307</v>
-      </c>
-      <c r="B449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" s="1">
-        <v>42342</v>
-      </c>
-      <c r="B450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" s="1">
-        <v>42398</v>
-      </c>
-      <c r="B451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" s="1">
-        <v>42440</v>
-      </c>
-      <c r="B452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" s="1">
-        <v>42496</v>
-      </c>
-      <c r="B453">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" s="1">
-        <v>42538</v>
-      </c>
-      <c r="B454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" s="1">
-        <v>42580</v>
-      </c>
-      <c r="B455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" s="1">
-        <v>42625</v>
-      </c>
-      <c r="B456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" s="1">
-        <v>42671</v>
-      </c>
-      <c r="B457">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" s="1">
-        <v>42713</v>
-      </c>
-      <c r="B458">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" s="1">
-        <v>42755</v>
-      </c>
-      <c r="B459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" s="1">
-        <v>42801</v>
-      </c>
-      <c r="B460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" s="1">
-        <v>42850</v>
-      </c>
-      <c r="B461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" s="1">
-        <v>42895</v>
-      </c>
-      <c r="B462">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" s="1">
-        <v>42951</v>
-      </c>
-      <c r="B463">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" s="1">
-        <v>42996</v>
-      </c>
-      <c r="B464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" s="1">
-        <v>43045</v>
-      </c>
-      <c r="B465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" s="1">
-        <v>43084</v>
-      </c>
-      <c r="B466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" s="1">
-        <v>43151</v>
-      </c>
-      <c r="B467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" s="1">
-        <v>43192</v>
-      </c>
-      <c r="B468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" s="1">
-        <v>43245</v>
-      </c>
-      <c r="B469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" s="1">
-        <v>43280</v>
-      </c>
-      <c r="B470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" s="1">
-        <v>43322</v>
-      </c>
-      <c r="B471">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" s="1">
-        <v>43371</v>
-      </c>
-      <c r="B472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" s="1">
-        <v>43416</v>
-      </c>
-      <c r="B473">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" s="1">
-        <v>43455</v>
-      </c>
-      <c r="B474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" s="1">
-        <v>43511</v>
-      </c>
-      <c r="B475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" s="1">
-        <v>43553</v>
-      </c>
-      <c r="B476">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" s="1">
-        <v>43602</v>
-      </c>
-      <c r="B477">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" s="1">
-        <v>43647</v>
-      </c>
-      <c r="B478">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" s="1">
-        <v>43686</v>
-      </c>
-      <c r="B479">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" s="1">
-        <v>43735</v>
-      </c>
-      <c r="B480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" s="1">
-        <v>43777</v>
-      </c>
-      <c r="B481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" s="1">
-        <v>43819</v>
-      </c>
-      <c r="B482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" s="1">
-        <v>43875</v>
-      </c>
-      <c r="B483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B484">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" s="1">
-        <v>43966</v>
-      </c>
-      <c r="B485">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" s="1">
-        <v>44008</v>
-      </c>
-      <c r="B486">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" s="1">
-        <v>44057</v>
-      </c>
-      <c r="B487">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" s="1">
-        <v>44099</v>
-      </c>
-      <c r="B488">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" s="1">
-        <v>44144</v>
-      </c>
-      <c r="B489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" s="1">
-        <v>44183</v>
-      </c>
-      <c r="B490">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" s="1">
-        <v>44225</v>
-      </c>
-      <c r="B491">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" s="1">
-        <v>44281</v>
-      </c>
-      <c r="B492">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" s="1">
-        <v>44330</v>
-      </c>
-      <c r="B493">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" s="1">
-        <v>44372</v>
-      </c>
-      <c r="B494">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" s="1">
-        <v>44421</v>
-      </c>
-      <c r="B495">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" s="1">
-        <v>44470</v>
-      </c>
-      <c r="B496">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" s="1">
-        <v>44508</v>
-      </c>
-      <c r="B497">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" s="1">
-        <v>44547</v>
-      </c>
-      <c r="B498">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" s="1">
-        <v>44603</v>
-      </c>
-      <c r="B499">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" s="1">
-        <v>44645</v>
-      </c>
-      <c r="B500">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" s="1">
-        <v>44694</v>
-      </c>
-      <c r="B501">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" s="1">
-        <v>44739</v>
-      </c>
-      <c r="B502">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" s="1">
-        <v>44785</v>
-      </c>
-      <c r="B503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" s="1">
-        <v>44834</v>
-      </c>
-      <c r="B504">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" s="1">
-        <v>44872</v>
-      </c>
-      <c r="B505">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" s="1">
-        <v>44911</v>
-      </c>
-      <c r="B506">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" s="1">
-        <v>44967</v>
-      </c>
-      <c r="B507">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" s="1">
-        <v>45016</v>
-      </c>
-      <c r="B508">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" s="1">
-        <v>45058</v>
-      </c>
-      <c r="B509">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
